--- a/SchedulingData/dynamic15/pso/scheduling2_15.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_15.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>234.64</v>
+        <v>211.98</v>
       </c>
       <c r="D2" t="n">
-        <v>322.04</v>
+        <v>307.64</v>
       </c>
       <c r="E2" t="n">
-        <v>11.596</v>
+        <v>10.936</v>
       </c>
     </row>
     <row r="3">
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>322.04</v>
+        <v>203.2</v>
       </c>
       <c r="D3" t="n">
-        <v>377.84</v>
+        <v>264.06</v>
       </c>
       <c r="E3" t="n">
-        <v>7.636</v>
+        <v>13.304</v>
       </c>
     </row>
     <row r="4">
@@ -504,55 +504,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>216.14</v>
+        <v>242.5</v>
       </c>
       <c r="D4" t="n">
-        <v>266.32</v>
+        <v>310.62</v>
       </c>
       <c r="E4" t="n">
-        <v>12.028</v>
+        <v>11.108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>266.32</v>
+        <v>264.06</v>
       </c>
       <c r="D5" t="n">
-        <v>353.42</v>
+        <v>310.12</v>
       </c>
       <c r="E5" t="n">
-        <v>6.928</v>
+        <v>9.827999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>377.84</v>
+        <v>310.62</v>
       </c>
       <c r="D6" t="n">
-        <v>441.6</v>
+        <v>376.54</v>
       </c>
       <c r="E6" t="n">
-        <v>3.38</v>
+        <v>7.636</v>
       </c>
     </row>
     <row r="7">
@@ -561,55 +561,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>240.68</v>
+        <v>200.64</v>
       </c>
       <c r="D7" t="n">
-        <v>310.06</v>
+        <v>262.94</v>
       </c>
       <c r="E7" t="n">
-        <v>10.144</v>
+        <v>11.396</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>310.06</v>
+        <v>307.64</v>
       </c>
       <c r="D8" t="n">
-        <v>343.8</v>
+        <v>370.86</v>
       </c>
       <c r="E8" t="n">
-        <v>7.9</v>
+        <v>6.724</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>353.42</v>
+        <v>370.86</v>
       </c>
       <c r="D9" t="n">
-        <v>431.72</v>
+        <v>420.66</v>
       </c>
       <c r="E9" t="n">
-        <v>2.728</v>
+        <v>4.364</v>
       </c>
     </row>
     <row r="10">
@@ -618,17 +618,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>343.8</v>
+        <v>262.94</v>
       </c>
       <c r="D10" t="n">
-        <v>393.7</v>
+        <v>290.94</v>
       </c>
       <c r="E10" t="n">
-        <v>5.04</v>
+        <v>9.236000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -637,245 +637,245 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>240.58</v>
+        <v>255.7</v>
       </c>
       <c r="D11" t="n">
-        <v>302</v>
+        <v>318.2</v>
       </c>
       <c r="E11" t="n">
-        <v>11.44</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>431.72</v>
+        <v>246.98</v>
       </c>
       <c r="D12" t="n">
-        <v>532.66</v>
+        <v>321.96</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>9.964</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>532.66</v>
+        <v>310.12</v>
       </c>
       <c r="D13" t="n">
-        <v>610.88</v>
+        <v>375.4</v>
       </c>
       <c r="E13" t="n">
-        <v>26.828</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>302</v>
+        <v>376.54</v>
       </c>
       <c r="D14" t="n">
-        <v>351.46</v>
+        <v>422.6</v>
       </c>
       <c r="E14" t="n">
-        <v>8.624000000000001</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>244.06</v>
+        <v>318.2</v>
       </c>
       <c r="D15" t="n">
-        <v>301.76</v>
+        <v>392.32</v>
       </c>
       <c r="E15" t="n">
-        <v>16.744</v>
+        <v>7.468</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>610.88</v>
+        <v>290.94</v>
       </c>
       <c r="D16" t="n">
-        <v>647.04</v>
+        <v>360.14</v>
       </c>
       <c r="E16" t="n">
-        <v>23.852</v>
+        <v>5.956</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>301.76</v>
+        <v>422.6</v>
       </c>
       <c r="D17" t="n">
-        <v>373.12</v>
+        <v>464.28</v>
       </c>
       <c r="E17" t="n">
-        <v>13.208</v>
+        <v>1.132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>373.12</v>
+        <v>464.28</v>
       </c>
       <c r="D18" t="n">
-        <v>442.64</v>
+        <v>548.8200000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>10.876</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>260.8</v>
+        <v>360.14</v>
       </c>
       <c r="D19" t="n">
-        <v>312.84</v>
+        <v>417.22</v>
       </c>
       <c r="E19" t="n">
-        <v>10.876</v>
+        <v>1.868</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>351.46</v>
+        <v>417.22</v>
       </c>
       <c r="D20" t="n">
-        <v>401.76</v>
+        <v>509.98</v>
       </c>
       <c r="E20" t="n">
-        <v>4.724</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>442.64</v>
+        <v>321.96</v>
       </c>
       <c r="D21" t="n">
-        <v>505.34</v>
+        <v>377.96</v>
       </c>
       <c r="E21" t="n">
-        <v>8.715999999999999</v>
+        <v>6.004</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>393.7</v>
+        <v>377.96</v>
       </c>
       <c r="D22" t="n">
-        <v>437.7</v>
+        <v>432.6</v>
       </c>
       <c r="E22" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>312.84</v>
+        <v>509.98</v>
       </c>
       <c r="D23" t="n">
-        <v>393.74</v>
+        <v>555.2</v>
       </c>
       <c r="E23" t="n">
-        <v>5.896</v>
+        <v>27.668</v>
       </c>
     </row>
     <row r="24">
@@ -884,17 +884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>393.74</v>
+        <v>432.6</v>
       </c>
       <c r="D24" t="n">
-        <v>477.04</v>
+        <v>504.28</v>
       </c>
       <c r="E24" t="n">
-        <v>0.676</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -903,52 +903,52 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>477.04</v>
+        <v>504.28</v>
       </c>
       <c r="D25" t="n">
-        <v>542.6900000000001</v>
+        <v>579.26</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>401.76</v>
+        <v>420.66</v>
       </c>
       <c r="D26" t="n">
-        <v>475.46</v>
+        <v>468.54</v>
       </c>
       <c r="E26" t="n">
-        <v>1.444</v>
+        <v>1.196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>475.46</v>
+        <v>468.54</v>
       </c>
       <c r="D27" t="n">
-        <v>583.87</v>
+        <v>567.45</v>
       </c>
       <c r="E27" t="n">
         <v>30</v>
@@ -956,40 +956,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>441.6</v>
+        <v>555.2</v>
       </c>
       <c r="D28" t="n">
-        <v>521.4400000000001</v>
+        <v>620</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>24.808</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521.4400000000001</v>
+        <v>392.32</v>
       </c>
       <c r="D29" t="n">
-        <v>562.64</v>
+        <v>438.16</v>
       </c>
       <c r="E29" t="n">
-        <v>26.58</v>
+        <v>4.504</v>
       </c>
     </row>
     <row r="30">
@@ -998,302 +998,302 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>542.6900000000001</v>
+        <v>579.26</v>
       </c>
       <c r="D30" t="n">
-        <v>593.13</v>
+        <v>661.5599999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>26.656</v>
+        <v>22.512</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>583.87</v>
+        <v>620</v>
       </c>
       <c r="D31" t="n">
-        <v>638.33</v>
+        <v>680.64</v>
       </c>
       <c r="E31" t="n">
-        <v>26.724</v>
+        <v>21.844</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>505.34</v>
+        <v>438.16</v>
       </c>
       <c r="D32" t="n">
-        <v>557.08</v>
+        <v>521.36</v>
       </c>
       <c r="E32" t="n">
-        <v>6.172</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>593.13</v>
+        <v>521.36</v>
       </c>
       <c r="D33" t="n">
-        <v>644.61</v>
+        <v>627.15</v>
       </c>
       <c r="E33" t="n">
-        <v>23.128</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>644.61</v>
+        <v>375.4</v>
       </c>
       <c r="D34" t="n">
-        <v>711.49</v>
+        <v>417.04</v>
       </c>
       <c r="E34" t="n">
-        <v>20.06</v>
+        <v>3.396</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>557.08</v>
+        <v>627.15</v>
       </c>
       <c r="D35" t="n">
-        <v>603.02</v>
+        <v>694.3099999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>3.208</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>562.64</v>
+        <v>694.3099999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>637.54</v>
+        <v>743.77</v>
       </c>
       <c r="E36" t="n">
-        <v>21.72</v>
+        <v>23.648</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>437.7</v>
+        <v>548.8200000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>504.08</v>
+        <v>583.52</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>504.08</v>
+        <v>583.52</v>
       </c>
       <c r="D38" t="n">
-        <v>586.78</v>
+        <v>646.92</v>
       </c>
       <c r="E38" t="n">
-        <v>26.36</v>
+        <v>23.98</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>586.78</v>
+        <v>661.5599999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>634.78</v>
+        <v>736.46</v>
       </c>
       <c r="E39" t="n">
-        <v>24.2</v>
+        <v>19.132</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>638.33</v>
+        <v>646.92</v>
       </c>
       <c r="D40" t="n">
-        <v>679.39</v>
+        <v>695.46</v>
       </c>
       <c r="E40" t="n">
-        <v>23.748</v>
+        <v>21.736</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>603.02</v>
+        <v>695.46</v>
       </c>
       <c r="D41" t="n">
-        <v>690.52</v>
+        <v>747.46</v>
       </c>
       <c r="E41" t="n">
-        <v>0.028</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>690.52</v>
+        <v>417.04</v>
       </c>
       <c r="D42" t="n">
-        <v>767.46</v>
+        <v>456.56</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>1.064</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>647.04</v>
+        <v>456.56</v>
       </c>
       <c r="D43" t="n">
-        <v>719.66</v>
+        <v>556.03</v>
       </c>
       <c r="E43" t="n">
-        <v>20.68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>711.49</v>
+        <v>556.03</v>
       </c>
       <c r="D44" t="n">
-        <v>746.11</v>
+        <v>618.9299999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>17.728</v>
+        <v>27.84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>679.39</v>
+        <v>567.45</v>
       </c>
       <c r="D45" t="n">
-        <v>765.15</v>
+        <v>606.17</v>
       </c>
       <c r="E45" t="n">
-        <v>20.272</v>
+        <v>26.828</v>
       </c>
     </row>
     <row r="46">
@@ -1306,32 +1306,32 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>637.54</v>
+        <v>618.9299999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>675.3</v>
+        <v>701.09</v>
       </c>
       <c r="E46" t="n">
-        <v>18.584</v>
+        <v>24.704</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>634.78</v>
+        <v>606.17</v>
       </c>
       <c r="D47" t="n">
-        <v>685.52</v>
+        <v>659.37</v>
       </c>
       <c r="E47" t="n">
-        <v>21.236</v>
+        <v>23.648</v>
       </c>
     </row>
   </sheetData>
